--- a/dataset_table.xlsx
+++ b/dataset_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\KAIST\2021-2학기\컴퓨터비전\02.Term_preject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\AI604-Computer-Vision-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C363CE87-28C8-4BAB-B081-3374BA2406EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E44C10-B909-4227-93D0-BFA040423F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{CE02F38F-7111-430D-B02D-99F6719CECF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>Dataset</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,14 +84,6 @@
   </si>
   <si>
     <t>valid : 200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontal : 320*320, 390*320, 320*322, ,,,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lateral : 320*320, 320*390, 320*372, ,,,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>There is no Xray image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X-ray images</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -391,10 +379,6 @@
     <t>ChestXRay_Pneumonia</t>
   </si>
   <si>
-    <t>But there is no matching imformation. so I don't know what data is origin Xray images.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(# of Total images is 950. CT images are also included.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -404,6 +388,38 @@
   </si>
   <si>
     <t>GIF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://db.jsrt.or.jp/eng.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.92GB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSRT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check how to use json file for segmentation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low resolution : 320*320, 390*320, 320*322, ,,,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-resolution : 3408*2800, ,,,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check how to open IMG file in python</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +684,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,29 +723,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,13 +741,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,12 +1110,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36743719-EE9C-4E24-89EA-948BB64A01EB}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
@@ -1111,41 +1127,41 @@
     <col min="10" max="10" width="96.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
+      <c r="I1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1160,25 +1176,25 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1186,16 +1202,18 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1203,14 +1221,14 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -1222,13 +1240,13 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="66">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1237,8 +1255,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1248,8 +1266,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1259,8 +1277,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1270,12 +1288,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="33">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1283,12 +1301,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1296,8 +1314,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1308,60 +1326,60 @@
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>51</v>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8">
         <v>14</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>61</v>
+      <c r="E13" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="66">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23" t="s">
-        <v>62</v>
+    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1369,14 +1387,14 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1384,12 +1402,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1397,8 +1415,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1409,15 +1427,15 @@
       <c r="I18" s="7"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>53</v>
+    <row r="19" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
@@ -1426,41 +1444,41 @@
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24" t="s">
-        <v>64</v>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="4"/>
@@ -1469,10 +1487,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="24" t="s">
-        <v>65</v>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="4"/>
@@ -1481,10 +1499,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="24" t="s">
-        <v>66</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="4"/>
@@ -1493,8 +1511,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1505,15 +1523,15 @@
       <c r="I24" s="7"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" ht="66" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>55</v>
+    <row r="25" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8">
         <v>19</v>
@@ -1523,24 +1541,24 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="27" t="s">
-        <v>82</v>
+      <c r="H25" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="66">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
-        <v>93</v>
+      <c r="J25" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1550,14 +1568,14 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1565,12 +1583,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1579,43 +1597,43 @@
       <c r="I28" s="7"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" ht="138">
-      <c r="A29" s="31" t="s">
-        <v>56</v>
+    <row r="29" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="33">
-      <c r="A30" s="32"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="22" t="s">
-        <v>92</v>
+      <c r="E30" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1626,42 +1644,42 @@
       <c r="I31" s="7"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="28" t="s">
-        <v>45</v>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="29"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1669,10 +1687,10 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1681,8 +1699,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1693,56 +1711,65 @@
       <c r="I35" s="7"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="31" t="s">
-        <v>63</v>
+    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="32"/>
+        <v>85</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="G37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="25" t="s">
-        <v>77</v>
+      <c r="E38" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1750,7 +1777,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1760,7 +1787,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1770,7 +1797,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1780,7 +1807,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1792,13 +1819,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1809,9 +1836,10 @@
     <hyperlink ref="J29" r:id="rId5" location="about-the-dataset" xr:uid="{A11383CD-3BEF-47C6-B8EF-9DBA80FCF516}"/>
     <hyperlink ref="J32" r:id="rId6" xr:uid="{F9F1E52C-424B-4D3E-8190-11296FF6E55E}"/>
     <hyperlink ref="J36" r:id="rId7" xr:uid="{1ED1F7D6-EF5A-486B-B978-7F0C1D00E157}"/>
+    <hyperlink ref="J37" r:id="rId8" xr:uid="{C0E9BB0D-2DF0-4749-9041-2EAEE9F0BDB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>